--- a/DESGASTE_LLANTA_COLUMNAS.xlsx
+++ b/DESGASTE_LLANTA_COLUMNAS.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryam_Naula\Desktop\DISEÑO EXPERIMENTAL\BRYAM NAULA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f147b550761b0635/Documents/GitHub/estadistica-inferencia/DOE-UCuenca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0EAA1-C39C-41EC-98A5-B5E4545067D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{8DB0EAA1-C39C-41EC-98A5-B5E4545067D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C7B9D09-7435-4BB5-87CD-98F0AFFB7B21}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBB89BFB-BCE2-416D-BBDB-9E185CDD2325}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{BBB89BFB-BCE2-416D-BBDB-9E185CDD2325}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +121,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1F13A331-818C-4E94-8EFC-55FD7DA4009B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,10 +135,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,12 +439,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -463,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,7 +486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -491,7 +500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -505,7 +514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -519,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -533,7 +542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -547,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -561,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -575,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -589,7 +598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -603,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -617,7 +626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -631,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -642,10 +651,10 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -659,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>4</v>
       </c>
